--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MAINE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MAINE_2020.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,29 +360,29 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -413,12 +413,12 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C4">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -542,7 +542,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C12">
@@ -604,7 +604,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C16">
@@ -692,7 +692,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C22">
@@ -788,41 +788,6 @@
       </c>
       <c r="D28">
         <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 497,795</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Octubre de 2021</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2020/MAINE_2020.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2020/MAINE_2020.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Total</t>
@@ -429,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Temascaltepec</t>
@@ -442,6 +452,11 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B6" t="inlineStr">
         <is>
           <t>Total</t>
@@ -473,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -522,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Guerero</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Total</t>
@@ -553,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -584,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -615,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Total</t>
@@ -646,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Total</t>
@@ -677,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -690,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Villa De Zaachila</t>
@@ -703,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Total</t>
@@ -734,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Total</t>
@@ -765,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Veracruz</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Total</t>
